--- a/E12Generator.xlsx
+++ b/E12Generator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fixi/Documents/GitHub/ExcelE12Generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AC8716-2B90-1B48-9B94-7B42574D47D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6E0EAF-96A3-9E41-B2E5-135A7BAADDF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17560" xr2:uid="{85F24663-EDB8-8D43-AF67-44D2199DE03D}"/>
   </bookViews>
@@ -28,9 +28,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Ω </t>
-  </si>
-  <si>
     <t>1-1000</t>
   </si>
   <si>
@@ -40,16 +37,19 @@
     <t>1000000&lt;</t>
   </si>
   <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>Zusatz:</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7W</t>
+    <t>uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 400V</t>
+  </si>
+  <si>
+    <t>pf</t>
+  </si>
+  <si>
+    <t>nf</t>
   </si>
 </sst>
 </file>
@@ -415,433 +415,481 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB41613-9592-4240-B754-8AE1624BEB06}">
-  <dimension ref="A1:CR8"/>
+  <dimension ref="A1:DD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="CZ15" sqref="CZ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:108" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:108" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="5" spans="1:108" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>Tabelle2!A6</f>
-        <v>1Ω  7W</v>
+        <v>1pf 400V</v>
       </c>
       <c r="B8" t="str">
         <f>Tabelle2!B6</f>
-        <v>1.2Ω  7W</v>
+        <v>1.2pf 400V</v>
       </c>
       <c r="C8" t="str">
         <f>Tabelle2!C6</f>
-        <v>1.5Ω  7W</v>
+        <v>1.5pf 400V</v>
       </c>
       <c r="D8" t="str">
         <f>Tabelle2!D6</f>
-        <v>1.8Ω  7W</v>
+        <v>1.8pf 400V</v>
       </c>
       <c r="E8" t="str">
         <f>Tabelle2!E6</f>
-        <v>2.2Ω  7W</v>
+        <v>2.2pf 400V</v>
       </c>
       <c r="F8" t="str">
         <f>Tabelle2!F6</f>
-        <v>2.7Ω  7W</v>
+        <v>2.7pf 400V</v>
       </c>
       <c r="G8" t="str">
         <f>Tabelle2!G6</f>
-        <v>3.3Ω  7W</v>
+        <v>3.3pf 400V</v>
       </c>
       <c r="H8" t="str">
         <f>Tabelle2!H6</f>
-        <v>3.9Ω  7W</v>
+        <v>3.9pf 400V</v>
       </c>
       <c r="I8" t="str">
         <f>Tabelle2!I6</f>
-        <v>4.7Ω  7W</v>
+        <v>4.7pf 400V</v>
       </c>
       <c r="J8" t="str">
         <f>Tabelle2!J6</f>
-        <v>5.6Ω  7W</v>
+        <v>5.6pf 400V</v>
       </c>
       <c r="K8" t="str">
         <f>Tabelle2!K6</f>
-        <v>6.8Ω  7W</v>
+        <v>6.8pf 400V</v>
       </c>
       <c r="L8" t="str">
         <f>Tabelle2!L6</f>
-        <v>8.2Ω  7W</v>
+        <v>8.2pf 400V</v>
       </c>
       <c r="M8" t="str">
         <f>Tabelle2!M6</f>
-        <v>10Ω  7W</v>
+        <v>10pf 400V</v>
       </c>
       <c r="N8" t="str">
         <f>Tabelle2!N6</f>
-        <v>12Ω  7W</v>
+        <v>12pf 400V</v>
       </c>
       <c r="O8" t="str">
         <f>Tabelle2!O6</f>
-        <v>15Ω  7W</v>
+        <v>15pf 400V</v>
       </c>
       <c r="P8" t="str">
         <f>Tabelle2!P6</f>
-        <v>18Ω  7W</v>
+        <v>18pf 400V</v>
       </c>
       <c r="Q8" t="str">
         <f>Tabelle2!Q6</f>
-        <v>22Ω  7W</v>
+        <v>22pf 400V</v>
       </c>
       <c r="R8" t="str">
         <f>Tabelle2!R6</f>
-        <v>27Ω  7W</v>
+        <v>27pf 400V</v>
       </c>
       <c r="S8" t="str">
         <f>Tabelle2!S6</f>
-        <v>33Ω  7W</v>
+        <v>33pf 400V</v>
       </c>
       <c r="T8" t="str">
         <f>Tabelle2!T6</f>
-        <v>39Ω  7W</v>
+        <v>39pf 400V</v>
       </c>
       <c r="U8" t="str">
         <f>Tabelle2!U6</f>
-        <v>47Ω  7W</v>
+        <v>47pf 400V</v>
       </c>
       <c r="V8" t="str">
         <f>Tabelle2!V6</f>
-        <v>56Ω  7W</v>
+        <v>56pf 400V</v>
       </c>
       <c r="W8" t="str">
         <f>Tabelle2!W6</f>
-        <v>68Ω  7W</v>
+        <v>68pf 400V</v>
       </c>
       <c r="X8" t="str">
         <f>Tabelle2!X6</f>
-        <v>82Ω  7W</v>
+        <v>82pf 400V</v>
       </c>
       <c r="Y8" t="str">
         <f>Tabelle2!Y6</f>
-        <v>100Ω  7W</v>
+        <v>100pf 400V</v>
       </c>
       <c r="Z8" t="str">
         <f>Tabelle2!Z6</f>
-        <v>120Ω  7W</v>
+        <v>120pf 400V</v>
       </c>
       <c r="AA8" t="str">
         <f>Tabelle2!AA6</f>
-        <v>150Ω  7W</v>
+        <v>150pf 400V</v>
       </c>
       <c r="AB8" t="str">
         <f>Tabelle2!AB6</f>
-        <v>180Ω  7W</v>
+        <v>180pf 400V</v>
       </c>
       <c r="AC8" t="str">
         <f>Tabelle2!AC6</f>
-        <v>220Ω  7W</v>
+        <v>220pf 400V</v>
       </c>
       <c r="AD8" t="str">
         <f>Tabelle2!AD6</f>
-        <v>270Ω  7W</v>
+        <v>270pf 400V</v>
       </c>
       <c r="AE8" t="str">
         <f>Tabelle2!AE6</f>
-        <v>330Ω  7W</v>
+        <v>330pf 400V</v>
       </c>
       <c r="AF8" t="str">
         <f>Tabelle2!AF6</f>
-        <v>390Ω  7W</v>
+        <v>390pf 400V</v>
       </c>
       <c r="AG8" t="str">
         <f>Tabelle2!AG6</f>
-        <v>470Ω  7W</v>
+        <v>470pf 400V</v>
       </c>
       <c r="AH8" t="str">
         <f>Tabelle2!AH6</f>
-        <v>560Ω  7W</v>
+        <v>560pf 400V</v>
       </c>
       <c r="AI8" t="str">
         <f>Tabelle2!AI6</f>
-        <v>680Ω  7W</v>
+        <v>680pf 400V</v>
       </c>
       <c r="AJ8" t="str">
         <f>Tabelle2!AJ6</f>
-        <v>820Ω  7W</v>
+        <v>820pf 400V</v>
       </c>
       <c r="AK8" t="str">
         <f>Tabelle2!AK6</f>
-        <v>1k 7W</v>
+        <v>1nf 400V</v>
       </c>
       <c r="AL8" t="str">
         <f>Tabelle2!AL6</f>
-        <v>1.2k 7W</v>
+        <v>1.2nf 400V</v>
       </c>
       <c r="AM8" t="str">
         <f>Tabelle2!AM6</f>
-        <v>1.5k 7W</v>
+        <v>1.5nf 400V</v>
       </c>
       <c r="AN8" t="str">
         <f>Tabelle2!AN6</f>
-        <v>1.8k 7W</v>
+        <v>1.8nf 400V</v>
       </c>
       <c r="AO8" t="str">
         <f>Tabelle2!AO6</f>
-        <v>2.2k 7W</v>
+        <v>2.2nf 400V</v>
       </c>
       <c r="AP8" t="str">
         <f>Tabelle2!AP6</f>
-        <v>2.7k 7W</v>
+        <v>2.7nf 400V</v>
       </c>
       <c r="AQ8" t="str">
         <f>Tabelle2!AQ6</f>
-        <v>3.3k 7W</v>
+        <v>3.3nf 400V</v>
       </c>
       <c r="AR8" t="str">
         <f>Tabelle2!AR6</f>
-        <v>3.9k 7W</v>
+        <v>3.9nf 400V</v>
       </c>
       <c r="AS8" t="str">
         <f>Tabelle2!AS6</f>
-        <v>4.7k 7W</v>
+        <v>4.7nf 400V</v>
       </c>
       <c r="AT8" t="str">
         <f>Tabelle2!AT6</f>
-        <v>5.6k 7W</v>
+        <v>5.6nf 400V</v>
       </c>
       <c r="AU8" t="str">
         <f>Tabelle2!AU6</f>
-        <v>6.8k 7W</v>
+        <v>6.8nf 400V</v>
       </c>
       <c r="AV8" t="str">
         <f>Tabelle2!AV6</f>
-        <v>8.2k 7W</v>
+        <v>8.2nf 400V</v>
       </c>
       <c r="AW8" t="str">
         <f>Tabelle2!AW6</f>
-        <v>10k 7W</v>
+        <v>10nf 400V</v>
       </c>
       <c r="AX8" t="str">
         <f>Tabelle2!AX6</f>
-        <v>12k 7W</v>
+        <v>12nf 400V</v>
       </c>
       <c r="AY8" t="str">
         <f>Tabelle2!AY6</f>
-        <v>15k 7W</v>
+        <v>15nf 400V</v>
       </c>
       <c r="AZ8" t="str">
         <f>Tabelle2!AZ6</f>
-        <v>18k 7W</v>
+        <v>18nf 400V</v>
       </c>
       <c r="BA8" t="str">
         <f>Tabelle2!BA6</f>
-        <v>22k 7W</v>
+        <v>22nf 400V</v>
       </c>
       <c r="BB8" t="str">
         <f>Tabelle2!BB6</f>
-        <v>27k 7W</v>
+        <v>27nf 400V</v>
       </c>
       <c r="BC8" t="str">
         <f>Tabelle2!BC6</f>
-        <v>33k 7W</v>
+        <v>33nf 400V</v>
       </c>
       <c r="BD8" t="str">
         <f>Tabelle2!BD6</f>
-        <v>39k 7W</v>
+        <v>39nf 400V</v>
       </c>
       <c r="BE8" t="str">
         <f>Tabelle2!BE6</f>
-        <v>47k 7W</v>
+        <v>47nf 400V</v>
       </c>
       <c r="BF8" t="str">
         <f>Tabelle2!BF6</f>
-        <v>56k 7W</v>
+        <v>56nf 400V</v>
       </c>
       <c r="BG8" t="str">
         <f>Tabelle2!BG6</f>
-        <v>68k 7W</v>
+        <v>68nf 400V</v>
       </c>
       <c r="BH8" t="str">
         <f>Tabelle2!BH6</f>
-        <v>82k 7W</v>
+        <v>82nf 400V</v>
       </c>
       <c r="BI8" t="str">
         <f>Tabelle2!BI6</f>
-        <v>100k 7W</v>
+        <v>100nf 400V</v>
       </c>
       <c r="BJ8" t="str">
         <f>Tabelle2!BJ6</f>
-        <v>120k 7W</v>
+        <v>120nf 400V</v>
       </c>
       <c r="BK8" t="str">
         <f>Tabelle2!BK6</f>
-        <v>150k 7W</v>
+        <v>150nf 400V</v>
       </c>
       <c r="BL8" t="str">
         <f>Tabelle2!BL6</f>
-        <v>180k 7W</v>
+        <v>180nf 400V</v>
       </c>
       <c r="BM8" t="str">
         <f>Tabelle2!BM6</f>
-        <v>220k 7W</v>
+        <v>220nf 400V</v>
       </c>
       <c r="BN8" t="str">
         <f>Tabelle2!BN6</f>
-        <v>270k 7W</v>
+        <v>270nf 400V</v>
       </c>
       <c r="BO8" t="str">
         <f>Tabelle2!BO6</f>
-        <v>330k 7W</v>
+        <v>330nf 400V</v>
       </c>
       <c r="BP8" t="str">
         <f>Tabelle2!BP6</f>
-        <v>390k 7W</v>
+        <v>390nf 400V</v>
       </c>
       <c r="BQ8" t="str">
         <f>Tabelle2!BQ6</f>
-        <v>470k 7W</v>
+        <v>470nf 400V</v>
       </c>
       <c r="BR8" t="str">
         <f>Tabelle2!BR6</f>
-        <v>560k 7W</v>
+        <v>560nf 400V</v>
       </c>
       <c r="BS8" t="str">
         <f>Tabelle2!BS6</f>
-        <v>680k 7W</v>
+        <v>680nf 400V</v>
       </c>
       <c r="BT8" t="str">
         <f>Tabelle2!BT6</f>
-        <v>820k 7W</v>
+        <v>820nf 400V</v>
       </c>
       <c r="BU8" t="str">
         <f>Tabelle2!BU6</f>
-        <v>1M 7W</v>
+        <v>1uF 400V</v>
       </c>
       <c r="BV8" t="str">
         <f>Tabelle2!BV6</f>
-        <v>1.2M 7W</v>
+        <v>1.2uF 400V</v>
       </c>
       <c r="BW8" t="str">
         <f>Tabelle2!BW6</f>
-        <v>1.5M 7W</v>
+        <v>1.5uF 400V</v>
       </c>
       <c r="BX8" t="str">
         <f>Tabelle2!BX6</f>
-        <v>1.8M 7W</v>
+        <v>1.8uF 400V</v>
       </c>
       <c r="BY8" t="str">
         <f>Tabelle2!BY6</f>
-        <v>2.2M 7W</v>
+        <v>2.2uF 400V</v>
       </c>
       <c r="BZ8" t="str">
         <f>Tabelle2!BZ6</f>
-        <v>2.7M 7W</v>
+        <v>2.7uF 400V</v>
       </c>
       <c r="CA8" t="str">
         <f>Tabelle2!CA6</f>
-        <v>3.3M 7W</v>
+        <v>3.3uF 400V</v>
       </c>
       <c r="CB8" t="str">
         <f>Tabelle2!CB6</f>
-        <v>3.9M 7W</v>
+        <v>3.9uF 400V</v>
       </c>
       <c r="CC8" t="str">
         <f>Tabelle2!CC6</f>
-        <v>4.7M 7W</v>
+        <v>4.7uF 400V</v>
       </c>
       <c r="CD8" t="str">
         <f>Tabelle2!CD6</f>
-        <v>5.6M 7W</v>
+        <v>5.6uF 400V</v>
       </c>
       <c r="CE8" t="str">
         <f>Tabelle2!CE6</f>
-        <v>6.8M 7W</v>
+        <v>6.8uF 400V</v>
       </c>
       <c r="CF8" t="str">
         <f>Tabelle2!CF6</f>
-        <v>8.2M 7W</v>
+        <v>8.2uF 400V</v>
       </c>
       <c r="CG8" t="str">
         <f>Tabelle2!CG6</f>
-        <v>10M 7W</v>
+        <v>10uF 400V</v>
       </c>
       <c r="CH8" t="str">
         <f>Tabelle2!CH6</f>
-        <v>12M 7W</v>
+        <v>12uF 400V</v>
       </c>
       <c r="CI8" t="str">
         <f>Tabelle2!CI6</f>
-        <v>15M 7W</v>
+        <v>15uF 400V</v>
       </c>
       <c r="CJ8" t="str">
         <f>Tabelle2!CJ6</f>
-        <v>18M 7W</v>
+        <v>18uF 400V</v>
       </c>
       <c r="CK8" t="str">
         <f>Tabelle2!CK6</f>
-        <v>22M 7W</v>
+        <v>22uF 400V</v>
       </c>
       <c r="CL8" t="str">
         <f>Tabelle2!CL6</f>
-        <v>27M 7W</v>
+        <v>27uF 400V</v>
       </c>
       <c r="CM8" t="str">
         <f>Tabelle2!CM6</f>
-        <v>33M 7W</v>
+        <v>33uF 400V</v>
       </c>
       <c r="CN8" t="str">
         <f>Tabelle2!CN6</f>
-        <v>39M 7W</v>
+        <v>39uF 400V</v>
       </c>
       <c r="CO8" t="str">
         <f>Tabelle2!CO6</f>
-        <v>47M 7W</v>
+        <v>47uF 400V</v>
       </c>
       <c r="CP8" t="str">
         <f>Tabelle2!CP6</f>
-        <v>56M 7W</v>
+        <v>56uF 400V</v>
       </c>
       <c r="CQ8" t="str">
         <f>Tabelle2!CQ6</f>
-        <v>68M 7W</v>
+        <v>68uF 400V</v>
       </c>
       <c r="CR8" t="str">
         <f>Tabelle2!CR6</f>
-        <v>82M 7W</v>
+        <v>82uF 400V</v>
+      </c>
+      <c r="CS8" t="str">
+        <f>Tabelle2!CS6</f>
+        <v>100uF 400V</v>
+      </c>
+      <c r="CT8" t="str">
+        <f>Tabelle2!CT6</f>
+        <v>120uF 400V</v>
+      </c>
+      <c r="CU8" t="str">
+        <f>Tabelle2!CU6</f>
+        <v>150uF 400V</v>
+      </c>
+      <c r="CV8" t="str">
+        <f>Tabelle2!CV6</f>
+        <v>180uF 400V</v>
+      </c>
+      <c r="CW8" t="str">
+        <f>Tabelle2!CW6</f>
+        <v>220uF 400V</v>
+      </c>
+      <c r="CX8" t="str">
+        <f>Tabelle2!CX6</f>
+        <v>270uF 400V</v>
+      </c>
+      <c r="CY8" t="str">
+        <f>Tabelle2!CY6</f>
+        <v>330uF 400V</v>
+      </c>
+      <c r="CZ8" t="str">
+        <f>Tabelle2!CZ6</f>
+        <v>390uF 400V</v>
+      </c>
+      <c r="DA8" t="str">
+        <f>Tabelle2!DA6</f>
+        <v>470uF 400V</v>
+      </c>
+      <c r="DB8" t="str">
+        <f>Tabelle2!DB6</f>
+        <v>560uF 400V</v>
+      </c>
+      <c r="DC8" t="str">
+        <f>Tabelle2!DC6</f>
+        <v>680uF 400V</v>
+      </c>
+      <c r="DD8" t="str">
+        <f>Tabelle2!DD6</f>
+        <v>820uF 400V</v>
       </c>
     </row>
   </sheetData>
@@ -851,10 +899,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAAE420-9AEA-3743-9AAB-CFD37DAE4812}">
-  <dimension ref="A1:CR6"/>
+  <dimension ref="A1:DD6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="CK1" workbookViewId="0">
+      <selection activeCell="DC9" sqref="DC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -862,7 +910,7 @@
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:108" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1151,8 +1199,44 @@
       <c r="CR1">
         <v>10</v>
       </c>
+      <c r="CS1">
+        <v>100</v>
+      </c>
+      <c r="CT1">
+        <v>100</v>
+      </c>
+      <c r="CU1">
+        <v>100</v>
+      </c>
+      <c r="CV1">
+        <v>100</v>
+      </c>
+      <c r="CW1">
+        <v>100</v>
+      </c>
+      <c r="CX1">
+        <v>100</v>
+      </c>
+      <c r="CY1">
+        <v>100</v>
+      </c>
+      <c r="CZ1">
+        <v>100</v>
+      </c>
+      <c r="DA1">
+        <v>100</v>
+      </c>
+      <c r="DB1">
+        <v>100</v>
+      </c>
+      <c r="DC1">
+        <v>100</v>
+      </c>
+      <c r="DD1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1441,8 +1525,44 @@
       <c r="CR2">
         <v>8.1999999999999993</v>
       </c>
+      <c r="CS2">
+        <v>1</v>
+      </c>
+      <c r="CT2">
+        <v>1.2</v>
+      </c>
+      <c r="CU2">
+        <v>1.5</v>
+      </c>
+      <c r="CV2">
+        <v>1.8</v>
+      </c>
+      <c r="CW2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CX2">
+        <v>2.7</v>
+      </c>
+      <c r="CY2">
+        <v>3.3</v>
+      </c>
+      <c r="CZ2">
+        <v>3.9</v>
+      </c>
+      <c r="DA2">
+        <v>4.7</v>
+      </c>
+      <c r="DB2">
+        <v>5.6</v>
+      </c>
+      <c r="DC2">
+        <v>6.8</v>
+      </c>
+      <c r="DD2">
+        <v>8.1999999999999993</v>
+      </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A1*A2</f>
         <v>1</v>
@@ -1824,1166 +1944,1358 @@
         <v>68</v>
       </c>
       <c r="CR3">
-        <f t="shared" ref="CR3" si="25">CR1*CR2</f>
+        <f t="shared" ref="CR3:DC3" si="25">CR1*CR2</f>
         <v>82</v>
       </c>
+      <c r="CS3">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="CT3">
+        <f t="shared" si="25"/>
+        <v>120</v>
+      </c>
+      <c r="CU3">
+        <f t="shared" si="25"/>
+        <v>150</v>
+      </c>
+      <c r="CV3">
+        <f t="shared" si="25"/>
+        <v>180</v>
+      </c>
+      <c r="CW3">
+        <f t="shared" si="25"/>
+        <v>220.00000000000003</v>
+      </c>
+      <c r="CX3">
+        <f t="shared" si="25"/>
+        <v>270</v>
+      </c>
+      <c r="CY3">
+        <f t="shared" si="25"/>
+        <v>330</v>
+      </c>
+      <c r="CZ3">
+        <f t="shared" si="25"/>
+        <v>390</v>
+      </c>
+      <c r="DA3">
+        <f t="shared" si="25"/>
+        <v>470</v>
+      </c>
+      <c r="DB3">
+        <f t="shared" si="25"/>
+        <v>560</v>
+      </c>
+      <c r="DC3">
+        <f t="shared" si="25"/>
+        <v>680</v>
+      </c>
+      <c r="DD3">
+        <f t="shared" ref="DD3" si="26">DD1*DD2</f>
+        <v>819.99999999999989</v>
+      </c>
     </row>
-    <row r="4" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>CONCATENATE(A3,Tabelle1!$B$1)</f>
-        <v>1Ω </v>
+        <v>1pf</v>
       </c>
       <c r="B4" t="str">
         <f>CONCATENATE(B3,Tabelle1!$B$1)</f>
-        <v>1.2Ω </v>
+        <v>1.2pf</v>
       </c>
       <c r="C4" t="str">
         <f>CONCATENATE(C3,Tabelle1!$B$1)</f>
-        <v>1.5Ω </v>
+        <v>1.5pf</v>
       </c>
       <c r="D4" t="str">
         <f>CONCATENATE(D3,Tabelle1!$B$1)</f>
-        <v>1.8Ω </v>
+        <v>1.8pf</v>
       </c>
       <c r="E4" t="str">
         <f>CONCATENATE(E3,Tabelle1!$B$1)</f>
-        <v>2.2Ω </v>
+        <v>2.2pf</v>
       </c>
       <c r="F4" t="str">
         <f>CONCATENATE(F3,Tabelle1!$B$1)</f>
-        <v>2.7Ω </v>
+        <v>2.7pf</v>
       </c>
       <c r="G4" t="str">
         <f>CONCATENATE(G3,Tabelle1!$B$1)</f>
-        <v>3.3Ω </v>
+        <v>3.3pf</v>
       </c>
       <c r="H4" t="str">
         <f>CONCATENATE(H3,Tabelle1!$B$1)</f>
-        <v>3.9Ω </v>
+        <v>3.9pf</v>
       </c>
       <c r="I4" t="str">
         <f>CONCATENATE(I3,Tabelle1!$B$1)</f>
-        <v>4.7Ω </v>
+        <v>4.7pf</v>
       </c>
       <c r="J4" t="str">
         <f>CONCATENATE(J3,Tabelle1!$B$1)</f>
-        <v>5.6Ω </v>
+        <v>5.6pf</v>
       </c>
       <c r="K4" t="str">
         <f>CONCATENATE(K3,Tabelle1!$B$1)</f>
-        <v>6.8Ω </v>
+        <v>6.8pf</v>
       </c>
       <c r="L4" t="str">
         <f>CONCATENATE(L3,Tabelle1!$B$1)</f>
-        <v>8.2Ω </v>
+        <v>8.2pf</v>
       </c>
       <c r="M4" t="str">
         <f>CONCATENATE(M3,Tabelle1!$B$1)</f>
-        <v>10Ω </v>
+        <v>10pf</v>
       </c>
       <c r="N4" t="str">
         <f>CONCATENATE(N3,Tabelle1!$B$1)</f>
-        <v>12Ω </v>
+        <v>12pf</v>
       </c>
       <c r="O4" t="str">
         <f>CONCATENATE(O3,Tabelle1!$B$1)</f>
-        <v>15Ω </v>
+        <v>15pf</v>
       </c>
       <c r="P4" t="str">
         <f>CONCATENATE(P3,Tabelle1!$B$1)</f>
-        <v>18Ω </v>
+        <v>18pf</v>
       </c>
       <c r="Q4" t="str">
         <f>CONCATENATE(Q3,Tabelle1!$B$1)</f>
-        <v>22Ω </v>
+        <v>22pf</v>
       </c>
       <c r="R4" t="str">
         <f>CONCATENATE(R3,Tabelle1!$B$1)</f>
-        <v>27Ω </v>
+        <v>27pf</v>
       </c>
       <c r="S4" t="str">
         <f>CONCATENATE(S3,Tabelle1!$B$1)</f>
-        <v>33Ω </v>
+        <v>33pf</v>
       </c>
       <c r="T4" t="str">
         <f>CONCATENATE(T3,Tabelle1!$B$1)</f>
-        <v>39Ω </v>
+        <v>39pf</v>
       </c>
       <c r="U4" t="str">
         <f>CONCATENATE(U3,Tabelle1!$B$1)</f>
-        <v>47Ω </v>
+        <v>47pf</v>
       </c>
       <c r="V4" t="str">
         <f>CONCATENATE(V3,Tabelle1!$B$1)</f>
-        <v>56Ω </v>
+        <v>56pf</v>
       </c>
       <c r="W4" t="str">
         <f>CONCATENATE(W3,Tabelle1!$B$1)</f>
-        <v>68Ω </v>
+        <v>68pf</v>
       </c>
       <c r="X4" t="str">
         <f>CONCATENATE(X3,Tabelle1!$B$1)</f>
-        <v>82Ω </v>
+        <v>82pf</v>
       </c>
       <c r="Y4" t="str">
         <f>CONCATENATE(Y3,Tabelle1!$B$1)</f>
-        <v>100Ω </v>
+        <v>100pf</v>
       </c>
       <c r="Z4" t="str">
         <f>CONCATENATE(Z3,Tabelle1!$B$1)</f>
-        <v>120Ω </v>
+        <v>120pf</v>
       </c>
       <c r="AA4" t="str">
         <f>CONCATENATE(AA3,Tabelle1!$B$1)</f>
-        <v>150Ω </v>
+        <v>150pf</v>
       </c>
       <c r="AB4" t="str">
         <f>CONCATENATE(AB3,Tabelle1!$B$1)</f>
-        <v>180Ω </v>
+        <v>180pf</v>
       </c>
       <c r="AC4" t="str">
         <f>CONCATENATE(AC3,Tabelle1!$B$1)</f>
-        <v>220Ω </v>
+        <v>220pf</v>
       </c>
       <c r="AD4" t="str">
         <f>CONCATENATE(AD3,Tabelle1!$B$1)</f>
-        <v>270Ω </v>
+        <v>270pf</v>
       </c>
       <c r="AE4" t="str">
         <f>CONCATENATE(AE3,Tabelle1!$B$1)</f>
-        <v>330Ω </v>
+        <v>330pf</v>
       </c>
       <c r="AF4" t="str">
         <f>CONCATENATE(AF3,Tabelle1!$B$1)</f>
-        <v>390Ω </v>
+        <v>390pf</v>
       </c>
       <c r="AG4" t="str">
         <f>CONCATENATE(AG3,Tabelle1!$B$1)</f>
-        <v>470Ω </v>
+        <v>470pf</v>
       </c>
       <c r="AH4" t="str">
         <f>CONCATENATE(AH3,Tabelle1!$B$1)</f>
-        <v>560Ω </v>
+        <v>560pf</v>
       </c>
       <c r="AI4" t="str">
         <f>CONCATENATE(AI3,Tabelle1!$B$1)</f>
-        <v>680Ω </v>
+        <v>680pf</v>
       </c>
       <c r="AJ4" t="str">
         <f>CONCATENATE(AJ3,Tabelle1!$B$1)</f>
-        <v>820Ω </v>
+        <v>820pf</v>
       </c>
       <c r="AK4" t="str">
         <f>CONCATENATE(AK3,Tabelle1!$B$2)</f>
-        <v>1k</v>
+        <v>1nf</v>
       </c>
       <c r="AL4" t="str">
         <f>CONCATENATE(AL3,Tabelle1!$B$2)</f>
-        <v>1.2k</v>
+        <v>1.2nf</v>
       </c>
       <c r="AM4" t="str">
         <f>CONCATENATE(AM3,Tabelle1!$B$2)</f>
-        <v>1.5k</v>
+        <v>1.5nf</v>
       </c>
       <c r="AN4" t="str">
         <f>CONCATENATE(AN3,Tabelle1!$B$2)</f>
-        <v>1.8k</v>
+        <v>1.8nf</v>
       </c>
       <c r="AO4" t="str">
         <f>CONCATENATE(AO3,Tabelle1!$B$2)</f>
-        <v>2.2k</v>
+        <v>2.2nf</v>
       </c>
       <c r="AP4" t="str">
         <f>CONCATENATE(AP3,Tabelle1!$B$2)</f>
-        <v>2.7k</v>
+        <v>2.7nf</v>
       </c>
       <c r="AQ4" t="str">
         <f>CONCATENATE(AQ3,Tabelle1!$B$2)</f>
-        <v>3.3k</v>
+        <v>3.3nf</v>
       </c>
       <c r="AR4" t="str">
         <f>CONCATENATE(AR3,Tabelle1!$B$2)</f>
-        <v>3.9k</v>
+        <v>3.9nf</v>
       </c>
       <c r="AS4" t="str">
         <f>CONCATENATE(AS3,Tabelle1!$B$2)</f>
-        <v>4.7k</v>
+        <v>4.7nf</v>
       </c>
       <c r="AT4" t="str">
         <f>CONCATENATE(AT3,Tabelle1!$B$2)</f>
-        <v>5.6k</v>
+        <v>5.6nf</v>
       </c>
       <c r="AU4" t="str">
         <f>CONCATENATE(AU3,Tabelle1!$B$2)</f>
-        <v>6.8k</v>
+        <v>6.8nf</v>
       </c>
       <c r="AV4" t="str">
         <f>CONCATENATE(AV3,Tabelle1!$B$2)</f>
-        <v>8.2k</v>
+        <v>8.2nf</v>
       </c>
       <c r="AW4" t="str">
         <f>CONCATENATE(AW3,Tabelle1!$B$2)</f>
-        <v>10k</v>
+        <v>10nf</v>
       </c>
       <c r="AX4" t="str">
         <f>CONCATENATE(AX3,Tabelle1!$B$2)</f>
-        <v>12k</v>
+        <v>12nf</v>
       </c>
       <c r="AY4" t="str">
         <f>CONCATENATE(AY3,Tabelle1!$B$2)</f>
-        <v>15k</v>
+        <v>15nf</v>
       </c>
       <c r="AZ4" t="str">
         <f>CONCATENATE(AZ3,Tabelle1!$B$2)</f>
-        <v>18k</v>
+        <v>18nf</v>
       </c>
       <c r="BA4" t="str">
         <f>CONCATENATE(BA3,Tabelle1!$B$2)</f>
-        <v>22k</v>
+        <v>22nf</v>
       </c>
       <c r="BB4" t="str">
         <f>CONCATENATE(BB3,Tabelle1!$B$2)</f>
-        <v>27k</v>
+        <v>27nf</v>
       </c>
       <c r="BC4" t="str">
         <f>CONCATENATE(BC3,Tabelle1!$B$2)</f>
-        <v>33k</v>
+        <v>33nf</v>
       </c>
       <c r="BD4" t="str">
         <f>CONCATENATE(BD3,Tabelle1!$B$2)</f>
-        <v>39k</v>
+        <v>39nf</v>
       </c>
       <c r="BE4" t="str">
         <f>CONCATENATE(BE3,Tabelle1!$B$2)</f>
-        <v>47k</v>
+        <v>47nf</v>
       </c>
       <c r="BF4" t="str">
         <f>CONCATENATE(BF3,Tabelle1!$B$2)</f>
-        <v>56k</v>
+        <v>56nf</v>
       </c>
       <c r="BG4" t="str">
         <f>CONCATENATE(BG3,Tabelle1!$B$2)</f>
-        <v>68k</v>
+        <v>68nf</v>
       </c>
       <c r="BH4" t="str">
         <f>CONCATENATE(BH3,Tabelle1!$B$2)</f>
-        <v>82k</v>
+        <v>82nf</v>
       </c>
       <c r="BI4" t="str">
         <f>CONCATENATE(BI3,Tabelle1!$B$2)</f>
-        <v>100k</v>
+        <v>100nf</v>
       </c>
       <c r="BJ4" t="str">
         <f>CONCATENATE(BJ3,Tabelle1!$B$2)</f>
-        <v>120k</v>
+        <v>120nf</v>
       </c>
       <c r="BK4" t="str">
         <f>CONCATENATE(BK3,Tabelle1!$B$2)</f>
-        <v>150k</v>
+        <v>150nf</v>
       </c>
       <c r="BL4" t="str">
         <f>CONCATENATE(BL3,Tabelle1!$B$2)</f>
-        <v>180k</v>
+        <v>180nf</v>
       </c>
       <c r="BM4" t="str">
         <f>CONCATENATE(BM3,Tabelle1!$B$2)</f>
-        <v>220k</v>
+        <v>220nf</v>
       </c>
       <c r="BN4" t="str">
         <f>CONCATENATE(BN3,Tabelle1!$B$2)</f>
-        <v>270k</v>
+        <v>270nf</v>
       </c>
       <c r="BO4" t="str">
         <f>CONCATENATE(BO3,Tabelle1!$B$2)</f>
-        <v>330k</v>
+        <v>330nf</v>
       </c>
       <c r="BP4" t="str">
         <f>CONCATENATE(BP3,Tabelle1!$B$2)</f>
-        <v>390k</v>
+        <v>390nf</v>
       </c>
       <c r="BQ4" t="str">
         <f>CONCATENATE(BQ3,Tabelle1!$B$2)</f>
-        <v>470k</v>
+        <v>470nf</v>
       </c>
       <c r="BR4" t="str">
         <f>CONCATENATE(BR3,Tabelle1!$B$2)</f>
-        <v>560k</v>
+        <v>560nf</v>
       </c>
       <c r="BS4" t="str">
         <f>CONCATENATE(BS3,Tabelle1!$B$2)</f>
-        <v>680k</v>
+        <v>680nf</v>
       </c>
       <c r="BT4" t="str">
         <f>CONCATENATE(BT3,Tabelle1!$B$2)</f>
-        <v>820k</v>
+        <v>820nf</v>
       </c>
       <c r="BU4" t="str">
         <f>CONCATENATE(BU3,Tabelle1!$B$3)</f>
-        <v>1M</v>
+        <v>1uF</v>
       </c>
       <c r="BV4" t="str">
         <f>CONCATENATE(BV3,Tabelle1!$B$3)</f>
-        <v>1.2M</v>
+        <v>1.2uF</v>
       </c>
       <c r="BW4" t="str">
         <f>CONCATENATE(BW3,Tabelle1!$B$3)</f>
-        <v>1.5M</v>
+        <v>1.5uF</v>
       </c>
       <c r="BX4" t="str">
         <f>CONCATENATE(BX3,Tabelle1!$B$3)</f>
-        <v>1.8M</v>
+        <v>1.8uF</v>
       </c>
       <c r="BY4" t="str">
         <f>CONCATENATE(BY3,Tabelle1!$B$3)</f>
-        <v>2.2M</v>
+        <v>2.2uF</v>
       </c>
       <c r="BZ4" t="str">
         <f>CONCATENATE(BZ3,Tabelle1!$B$3)</f>
-        <v>2.7M</v>
+        <v>2.7uF</v>
       </c>
       <c r="CA4" t="str">
         <f>CONCATENATE(CA3,Tabelle1!$B$3)</f>
-        <v>3.3M</v>
+        <v>3.3uF</v>
       </c>
       <c r="CB4" t="str">
         <f>CONCATENATE(CB3,Tabelle1!$B$3)</f>
-        <v>3.9M</v>
+        <v>3.9uF</v>
       </c>
       <c r="CC4" t="str">
         <f>CONCATENATE(CC3,Tabelle1!$B$3)</f>
-        <v>4.7M</v>
+        <v>4.7uF</v>
       </c>
       <c r="CD4" t="str">
         <f>CONCATENATE(CD3,Tabelle1!$B$3)</f>
-        <v>5.6M</v>
+        <v>5.6uF</v>
       </c>
       <c r="CE4" t="str">
         <f>CONCATENATE(CE3,Tabelle1!$B$3)</f>
-        <v>6.8M</v>
+        <v>6.8uF</v>
       </c>
       <c r="CF4" t="str">
         <f>CONCATENATE(CF3,Tabelle1!$B$3)</f>
-        <v>8.2M</v>
+        <v>8.2uF</v>
       </c>
       <c r="CG4" t="str">
         <f>CONCATENATE(CG3,Tabelle1!$B$3)</f>
-        <v>10M</v>
+        <v>10uF</v>
       </c>
       <c r="CH4" t="str">
         <f>CONCATENATE(CH3,Tabelle1!$B$3)</f>
-        <v>12M</v>
+        <v>12uF</v>
       </c>
       <c r="CI4" t="str">
         <f>CONCATENATE(CI3,Tabelle1!$B$3)</f>
-        <v>15M</v>
+        <v>15uF</v>
       </c>
       <c r="CJ4" t="str">
         <f>CONCATENATE(CJ3,Tabelle1!$B$3)</f>
-        <v>18M</v>
+        <v>18uF</v>
       </c>
       <c r="CK4" t="str">
         <f>CONCATENATE(CK3,Tabelle1!$B$3)</f>
-        <v>22M</v>
+        <v>22uF</v>
       </c>
       <c r="CL4" t="str">
         <f>CONCATENATE(CL3,Tabelle1!$B$3)</f>
-        <v>27M</v>
+        <v>27uF</v>
       </c>
       <c r="CM4" t="str">
         <f>CONCATENATE(CM3,Tabelle1!$B$3)</f>
-        <v>33M</v>
+        <v>33uF</v>
       </c>
       <c r="CN4" t="str">
         <f>CONCATENATE(CN3,Tabelle1!$B$3)</f>
-        <v>39M</v>
+        <v>39uF</v>
       </c>
       <c r="CO4" t="str">
         <f>CONCATENATE(CO3,Tabelle1!$B$3)</f>
-        <v>47M</v>
+        <v>47uF</v>
       </c>
       <c r="CP4" t="str">
         <f>CONCATENATE(CP3,Tabelle1!$B$3)</f>
-        <v>56M</v>
+        <v>56uF</v>
       </c>
       <c r="CQ4" t="str">
         <f>CONCATENATE(CQ3,Tabelle1!$B$3)</f>
-        <v>68M</v>
+        <v>68uF</v>
       </c>
       <c r="CR4" t="str">
         <f>CONCATENATE(CR3,Tabelle1!$B$3)</f>
-        <v>82M</v>
+        <v>82uF</v>
+      </c>
+      <c r="CS4" t="str">
+        <f>CONCATENATE(CS3,Tabelle1!$B$3)</f>
+        <v>100uF</v>
+      </c>
+      <c r="CT4" t="str">
+        <f>CONCATENATE(CT3,Tabelle1!$B$3)</f>
+        <v>120uF</v>
+      </c>
+      <c r="CU4" t="str">
+        <f>CONCATENATE(CU3,Tabelle1!$B$3)</f>
+        <v>150uF</v>
+      </c>
+      <c r="CV4" t="str">
+        <f>CONCATENATE(CV3,Tabelle1!$B$3)</f>
+        <v>180uF</v>
+      </c>
+      <c r="CW4" t="str">
+        <f>CONCATENATE(CW3,Tabelle1!$B$3)</f>
+        <v>220uF</v>
+      </c>
+      <c r="CX4" t="str">
+        <f>CONCATENATE(CX3,Tabelle1!$B$3)</f>
+        <v>270uF</v>
+      </c>
+      <c r="CY4" t="str">
+        <f>CONCATENATE(CY3,Tabelle1!$B$3)</f>
+        <v>330uF</v>
+      </c>
+      <c r="CZ4" t="str">
+        <f>CONCATENATE(CZ3,Tabelle1!$B$3)</f>
+        <v>390uF</v>
+      </c>
+      <c r="DA4" t="str">
+        <f>CONCATENATE(DA3,Tabelle1!$B$3)</f>
+        <v>470uF</v>
+      </c>
+      <c r="DB4" t="str">
+        <f>CONCATENATE(DB3,Tabelle1!$B$3)</f>
+        <v>560uF</v>
+      </c>
+      <c r="DC4" t="str">
+        <f>CONCATENATE(DC3,Tabelle1!$B$3)</f>
+        <v>680uF</v>
+      </c>
+      <c r="DD4" t="str">
+        <f>CONCATENATE(DD3,Tabelle1!$B$3)</f>
+        <v>820uF</v>
       </c>
     </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="B5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="C5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="D5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="E5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="F5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="G5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="H5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="I5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="J5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="K5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="L5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="M5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="N5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="O5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="P5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="Q5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="R5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="S5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="T5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="U5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="V5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="W5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="X5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="Y5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="Z5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="AA5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="AB5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="AC5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="AD5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="AE5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="AF5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="AG5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="AH5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="AI5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="AJ5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="AK5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="AL5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="AM5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="AN5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="AO5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="AP5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="AQ5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="AR5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="AS5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="AT5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="AU5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="AV5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="AW5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="AX5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="AY5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="AZ5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="BA5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="BB5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="BC5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="BD5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="BE5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="BF5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="BG5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="BH5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="BI5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="BJ5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="BK5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="BL5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="BM5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="BN5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="BO5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="BP5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="BQ5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="BR5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="BS5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="BT5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="BU5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="BV5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="BW5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="BX5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="BY5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="BZ5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="CA5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="CB5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="CC5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="CD5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="CE5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="CF5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="CG5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="CH5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="CI5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="CJ5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="CK5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="CL5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="CM5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="CN5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="CO5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="CP5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="CQ5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
       </c>
       <c r="CR5" t="str">
         <f>Tabelle1!$B$5</f>
-        <v xml:space="preserve"> 7W</v>
+        <v xml:space="preserve"> 400V</v>
+      </c>
+      <c r="CS5" t="str">
+        <f>Tabelle1!$B$5</f>
+        <v xml:space="preserve"> 400V</v>
+      </c>
+      <c r="CT5" t="str">
+        <f>Tabelle1!$B$5</f>
+        <v xml:space="preserve"> 400V</v>
+      </c>
+      <c r="CU5" t="str">
+        <f>Tabelle1!$B$5</f>
+        <v xml:space="preserve"> 400V</v>
+      </c>
+      <c r="CV5" t="str">
+        <f>Tabelle1!$B$5</f>
+        <v xml:space="preserve"> 400V</v>
+      </c>
+      <c r="CW5" t="str">
+        <f>Tabelle1!$B$5</f>
+        <v xml:space="preserve"> 400V</v>
+      </c>
+      <c r="CX5" t="str">
+        <f>Tabelle1!$B$5</f>
+        <v xml:space="preserve"> 400V</v>
+      </c>
+      <c r="CY5" t="str">
+        <f>Tabelle1!$B$5</f>
+        <v xml:space="preserve"> 400V</v>
+      </c>
+      <c r="CZ5" t="str">
+        <f>Tabelle1!$B$5</f>
+        <v xml:space="preserve"> 400V</v>
+      </c>
+      <c r="DA5" t="str">
+        <f>Tabelle1!$B$5</f>
+        <v xml:space="preserve"> 400V</v>
+      </c>
+      <c r="DB5" t="str">
+        <f>Tabelle1!$B$5</f>
+        <v xml:space="preserve"> 400V</v>
+      </c>
+      <c r="DC5" t="str">
+        <f>Tabelle1!$B$5</f>
+        <v xml:space="preserve"> 400V</v>
+      </c>
+      <c r="DD5" t="str">
+        <f>Tabelle1!$B$5</f>
+        <v xml:space="preserve"> 400V</v>
       </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>CONCATENATE(A4,A5)</f>
-        <v>1Ω  7W</v>
+        <v>1pf 400V</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" ref="B6:BM6" si="26">CONCATENATE(B4,B5)</f>
-        <v>1.2Ω  7W</v>
+        <f t="shared" ref="B6:BM6" si="27">CONCATENATE(B4,B5)</f>
+        <v>1.2pf 400V</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="26"/>
-        <v>1.5Ω  7W</v>
+        <f t="shared" si="27"/>
+        <v>1.5pf 400V</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="26"/>
-        <v>1.8Ω  7W</v>
+        <f t="shared" si="27"/>
+        <v>1.8pf 400V</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="26"/>
-        <v>2.2Ω  7W</v>
+        <f t="shared" si="27"/>
+        <v>2.2pf 400V</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="26"/>
-        <v>2.7Ω  7W</v>
+        <f t="shared" si="27"/>
+        <v>2.7pf 400V</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="26"/>
-        <v>3.3Ω  7W</v>
+        <f t="shared" si="27"/>
+        <v>3.3pf 400V</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="26"/>
-        <v>3.9Ω  7W</v>
+        <f t="shared" si="27"/>
+        <v>3.9pf 400V</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="26"/>
-        <v>4.7Ω  7W</v>
+        <f t="shared" si="27"/>
+        <v>4.7pf 400V</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="26"/>
-        <v>5.6Ω  7W</v>
+        <f t="shared" si="27"/>
+        <v>5.6pf 400V</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="26"/>
-        <v>6.8Ω  7W</v>
+        <f t="shared" si="27"/>
+        <v>6.8pf 400V</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="26"/>
-        <v>8.2Ω  7W</v>
+        <f t="shared" si="27"/>
+        <v>8.2pf 400V</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="26"/>
-        <v>10Ω  7W</v>
+        <f t="shared" si="27"/>
+        <v>10pf 400V</v>
       </c>
       <c r="N6" t="str">
-        <f t="shared" si="26"/>
-        <v>12Ω  7W</v>
+        <f t="shared" si="27"/>
+        <v>12pf 400V</v>
       </c>
       <c r="O6" t="str">
-        <f t="shared" si="26"/>
-        <v>15Ω  7W</v>
+        <f t="shared" si="27"/>
+        <v>15pf 400V</v>
       </c>
       <c r="P6" t="str">
-        <f t="shared" si="26"/>
-        <v>18Ω  7W</v>
+        <f t="shared" si="27"/>
+        <v>18pf 400V</v>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" si="26"/>
-        <v>22Ω  7W</v>
+        <f t="shared" si="27"/>
+        <v>22pf 400V</v>
       </c>
       <c r="R6" t="str">
-        <f t="shared" si="26"/>
-        <v>27Ω  7W</v>
+        <f t="shared" si="27"/>
+        <v>27pf 400V</v>
       </c>
       <c r="S6" t="str">
-        <f t="shared" si="26"/>
-        <v>33Ω  7W</v>
+        <f t="shared" si="27"/>
+        <v>33pf 400V</v>
       </c>
       <c r="T6" t="str">
-        <f t="shared" si="26"/>
-        <v>39Ω  7W</v>
+        <f t="shared" si="27"/>
+        <v>39pf 400V</v>
       </c>
       <c r="U6" t="str">
-        <f t="shared" si="26"/>
-        <v>47Ω  7W</v>
+        <f t="shared" si="27"/>
+        <v>47pf 400V</v>
       </c>
       <c r="V6" t="str">
-        <f t="shared" si="26"/>
-        <v>56Ω  7W</v>
+        <f t="shared" si="27"/>
+        <v>56pf 400V</v>
       </c>
       <c r="W6" t="str">
-        <f t="shared" si="26"/>
-        <v>68Ω  7W</v>
+        <f t="shared" si="27"/>
+        <v>68pf 400V</v>
       </c>
       <c r="X6" t="str">
-        <f t="shared" si="26"/>
-        <v>82Ω  7W</v>
+        <f t="shared" si="27"/>
+        <v>82pf 400V</v>
       </c>
       <c r="Y6" t="str">
-        <f t="shared" si="26"/>
-        <v>100Ω  7W</v>
+        <f t="shared" si="27"/>
+        <v>100pf 400V</v>
       </c>
       <c r="Z6" t="str">
-        <f t="shared" si="26"/>
-        <v>120Ω  7W</v>
+        <f t="shared" si="27"/>
+        <v>120pf 400V</v>
       </c>
       <c r="AA6" t="str">
-        <f t="shared" si="26"/>
-        <v>150Ω  7W</v>
+        <f t="shared" si="27"/>
+        <v>150pf 400V</v>
       </c>
       <c r="AB6" t="str">
-        <f t="shared" si="26"/>
-        <v>180Ω  7W</v>
+        <f t="shared" si="27"/>
+        <v>180pf 400V</v>
       </c>
       <c r="AC6" t="str">
-        <f t="shared" si="26"/>
-        <v>220Ω  7W</v>
+        <f t="shared" si="27"/>
+        <v>220pf 400V</v>
       </c>
       <c r="AD6" t="str">
-        <f t="shared" si="26"/>
-        <v>270Ω  7W</v>
+        <f t="shared" si="27"/>
+        <v>270pf 400V</v>
       </c>
       <c r="AE6" t="str">
-        <f t="shared" si="26"/>
-        <v>330Ω  7W</v>
+        <f t="shared" si="27"/>
+        <v>330pf 400V</v>
       </c>
       <c r="AF6" t="str">
-        <f t="shared" si="26"/>
-        <v>390Ω  7W</v>
+        <f t="shared" si="27"/>
+        <v>390pf 400V</v>
       </c>
       <c r="AG6" t="str">
-        <f t="shared" si="26"/>
-        <v>470Ω  7W</v>
+        <f t="shared" si="27"/>
+        <v>470pf 400V</v>
       </c>
       <c r="AH6" t="str">
-        <f t="shared" si="26"/>
-        <v>560Ω  7W</v>
+        <f t="shared" si="27"/>
+        <v>560pf 400V</v>
       </c>
       <c r="AI6" t="str">
-        <f t="shared" si="26"/>
-        <v>680Ω  7W</v>
+        <f t="shared" si="27"/>
+        <v>680pf 400V</v>
       </c>
       <c r="AJ6" t="str">
-        <f t="shared" si="26"/>
-        <v>820Ω  7W</v>
+        <f t="shared" si="27"/>
+        <v>820pf 400V</v>
       </c>
       <c r="AK6" t="str">
-        <f t="shared" si="26"/>
-        <v>1k 7W</v>
+        <f t="shared" si="27"/>
+        <v>1nf 400V</v>
       </c>
       <c r="AL6" t="str">
-        <f t="shared" si="26"/>
-        <v>1.2k 7W</v>
+        <f t="shared" si="27"/>
+        <v>1.2nf 400V</v>
       </c>
       <c r="AM6" t="str">
-        <f t="shared" si="26"/>
-        <v>1.5k 7W</v>
+        <f t="shared" si="27"/>
+        <v>1.5nf 400V</v>
       </c>
       <c r="AN6" t="str">
-        <f t="shared" si="26"/>
-        <v>1.8k 7W</v>
+        <f t="shared" si="27"/>
+        <v>1.8nf 400V</v>
       </c>
       <c r="AO6" t="str">
-        <f t="shared" si="26"/>
-        <v>2.2k 7W</v>
+        <f t="shared" si="27"/>
+        <v>2.2nf 400V</v>
       </c>
       <c r="AP6" t="str">
-        <f t="shared" si="26"/>
-        <v>2.7k 7W</v>
+        <f t="shared" si="27"/>
+        <v>2.7nf 400V</v>
       </c>
       <c r="AQ6" t="str">
-        <f t="shared" si="26"/>
-        <v>3.3k 7W</v>
+        <f t="shared" si="27"/>
+        <v>3.3nf 400V</v>
       </c>
       <c r="AR6" t="str">
-        <f t="shared" si="26"/>
-        <v>3.9k 7W</v>
+        <f t="shared" si="27"/>
+        <v>3.9nf 400V</v>
       </c>
       <c r="AS6" t="str">
-        <f t="shared" si="26"/>
-        <v>4.7k 7W</v>
+        <f t="shared" si="27"/>
+        <v>4.7nf 400V</v>
       </c>
       <c r="AT6" t="str">
-        <f t="shared" si="26"/>
-        <v>5.6k 7W</v>
+        <f t="shared" si="27"/>
+        <v>5.6nf 400V</v>
       </c>
       <c r="AU6" t="str">
-        <f t="shared" si="26"/>
-        <v>6.8k 7W</v>
+        <f t="shared" si="27"/>
+        <v>6.8nf 400V</v>
       </c>
       <c r="AV6" t="str">
-        <f t="shared" si="26"/>
-        <v>8.2k 7W</v>
+        <f t="shared" si="27"/>
+        <v>8.2nf 400V</v>
       </c>
       <c r="AW6" t="str">
-        <f t="shared" si="26"/>
-        <v>10k 7W</v>
+        <f t="shared" si="27"/>
+        <v>10nf 400V</v>
       </c>
       <c r="AX6" t="str">
-        <f t="shared" si="26"/>
-        <v>12k 7W</v>
+        <f t="shared" si="27"/>
+        <v>12nf 400V</v>
       </c>
       <c r="AY6" t="str">
-        <f t="shared" si="26"/>
-        <v>15k 7W</v>
+        <f t="shared" si="27"/>
+        <v>15nf 400V</v>
       </c>
       <c r="AZ6" t="str">
-        <f t="shared" si="26"/>
-        <v>18k 7W</v>
+        <f t="shared" si="27"/>
+        <v>18nf 400V</v>
       </c>
       <c r="BA6" t="str">
-        <f t="shared" si="26"/>
-        <v>22k 7W</v>
+        <f t="shared" si="27"/>
+        <v>22nf 400V</v>
       </c>
       <c r="BB6" t="str">
-        <f t="shared" si="26"/>
-        <v>27k 7W</v>
+        <f t="shared" si="27"/>
+        <v>27nf 400V</v>
       </c>
       <c r="BC6" t="str">
-        <f t="shared" si="26"/>
-        <v>33k 7W</v>
+        <f t="shared" si="27"/>
+        <v>33nf 400V</v>
       </c>
       <c r="BD6" t="str">
-        <f t="shared" si="26"/>
-        <v>39k 7W</v>
+        <f t="shared" si="27"/>
+        <v>39nf 400V</v>
       </c>
       <c r="BE6" t="str">
-        <f t="shared" si="26"/>
-        <v>47k 7W</v>
+        <f t="shared" si="27"/>
+        <v>47nf 400V</v>
       </c>
       <c r="BF6" t="str">
-        <f t="shared" si="26"/>
-        <v>56k 7W</v>
+        <f t="shared" si="27"/>
+        <v>56nf 400V</v>
       </c>
       <c r="BG6" t="str">
-        <f t="shared" si="26"/>
-        <v>68k 7W</v>
+        <f t="shared" si="27"/>
+        <v>68nf 400V</v>
       </c>
       <c r="BH6" t="str">
-        <f t="shared" si="26"/>
-        <v>82k 7W</v>
+        <f t="shared" si="27"/>
+        <v>82nf 400V</v>
       </c>
       <c r="BI6" t="str">
-        <f t="shared" si="26"/>
-        <v>100k 7W</v>
+        <f t="shared" si="27"/>
+        <v>100nf 400V</v>
       </c>
       <c r="BJ6" t="str">
-        <f t="shared" si="26"/>
-        <v>120k 7W</v>
+        <f t="shared" si="27"/>
+        <v>120nf 400V</v>
       </c>
       <c r="BK6" t="str">
-        <f t="shared" si="26"/>
-        <v>150k 7W</v>
+        <f t="shared" si="27"/>
+        <v>150nf 400V</v>
       </c>
       <c r="BL6" t="str">
-        <f t="shared" si="26"/>
-        <v>180k 7W</v>
+        <f t="shared" si="27"/>
+        <v>180nf 400V</v>
       </c>
       <c r="BM6" t="str">
-        <f t="shared" si="26"/>
-        <v>220k 7W</v>
+        <f t="shared" si="27"/>
+        <v>220nf 400V</v>
       </c>
       <c r="BN6" t="str">
-        <f t="shared" ref="BN6:CR6" si="27">CONCATENATE(BN4,BN5)</f>
-        <v>270k 7W</v>
+        <f t="shared" ref="BN6:CR6" si="28">CONCATENATE(BN4,BN5)</f>
+        <v>270nf 400V</v>
       </c>
       <c r="BO6" t="str">
-        <f t="shared" si="27"/>
-        <v>330k 7W</v>
+        <f t="shared" si="28"/>
+        <v>330nf 400V</v>
       </c>
       <c r="BP6" t="str">
-        <f t="shared" si="27"/>
-        <v>390k 7W</v>
+        <f t="shared" si="28"/>
+        <v>390nf 400V</v>
       </c>
       <c r="BQ6" t="str">
-        <f t="shared" si="27"/>
-        <v>470k 7W</v>
+        <f t="shared" si="28"/>
+        <v>470nf 400V</v>
       </c>
       <c r="BR6" t="str">
-        <f t="shared" si="27"/>
-        <v>560k 7W</v>
+        <f t="shared" si="28"/>
+        <v>560nf 400V</v>
       </c>
       <c r="BS6" t="str">
-        <f t="shared" si="27"/>
-        <v>680k 7W</v>
+        <f t="shared" si="28"/>
+        <v>680nf 400V</v>
       </c>
       <c r="BT6" t="str">
-        <f t="shared" si="27"/>
-        <v>820k 7W</v>
+        <f t="shared" si="28"/>
+        <v>820nf 400V</v>
       </c>
       <c r="BU6" t="str">
-        <f t="shared" si="27"/>
-        <v>1M 7W</v>
+        <f t="shared" si="28"/>
+        <v>1uF 400V</v>
       </c>
       <c r="BV6" t="str">
-        <f t="shared" si="27"/>
-        <v>1.2M 7W</v>
+        <f t="shared" si="28"/>
+        <v>1.2uF 400V</v>
       </c>
       <c r="BW6" t="str">
-        <f t="shared" si="27"/>
-        <v>1.5M 7W</v>
+        <f t="shared" si="28"/>
+        <v>1.5uF 400V</v>
       </c>
       <c r="BX6" t="str">
-        <f t="shared" si="27"/>
-        <v>1.8M 7W</v>
+        <f t="shared" si="28"/>
+        <v>1.8uF 400V</v>
       </c>
       <c r="BY6" t="str">
-        <f t="shared" si="27"/>
-        <v>2.2M 7W</v>
+        <f t="shared" si="28"/>
+        <v>2.2uF 400V</v>
       </c>
       <c r="BZ6" t="str">
-        <f t="shared" si="27"/>
-        <v>2.7M 7W</v>
+        <f t="shared" si="28"/>
+        <v>2.7uF 400V</v>
       </c>
       <c r="CA6" t="str">
-        <f t="shared" si="27"/>
-        <v>3.3M 7W</v>
+        <f t="shared" si="28"/>
+        <v>3.3uF 400V</v>
       </c>
       <c r="CB6" t="str">
-        <f t="shared" si="27"/>
-        <v>3.9M 7W</v>
+        <f t="shared" si="28"/>
+        <v>3.9uF 400V</v>
       </c>
       <c r="CC6" t="str">
-        <f t="shared" si="27"/>
-        <v>4.7M 7W</v>
+        <f t="shared" si="28"/>
+        <v>4.7uF 400V</v>
       </c>
       <c r="CD6" t="str">
-        <f t="shared" si="27"/>
-        <v>5.6M 7W</v>
+        <f t="shared" si="28"/>
+        <v>5.6uF 400V</v>
       </c>
       <c r="CE6" t="str">
-        <f t="shared" si="27"/>
-        <v>6.8M 7W</v>
+        <f t="shared" si="28"/>
+        <v>6.8uF 400V</v>
       </c>
       <c r="CF6" t="str">
-        <f t="shared" si="27"/>
-        <v>8.2M 7W</v>
+        <f t="shared" si="28"/>
+        <v>8.2uF 400V</v>
       </c>
       <c r="CG6" t="str">
-        <f t="shared" si="27"/>
-        <v>10M 7W</v>
+        <f t="shared" si="28"/>
+        <v>10uF 400V</v>
       </c>
       <c r="CH6" t="str">
-        <f t="shared" si="27"/>
-        <v>12M 7W</v>
+        <f t="shared" si="28"/>
+        <v>12uF 400V</v>
       </c>
       <c r="CI6" t="str">
-        <f t="shared" si="27"/>
-        <v>15M 7W</v>
+        <f t="shared" si="28"/>
+        <v>15uF 400V</v>
       </c>
       <c r="CJ6" t="str">
-        <f t="shared" si="27"/>
-        <v>18M 7W</v>
+        <f t="shared" si="28"/>
+        <v>18uF 400V</v>
       </c>
       <c r="CK6" t="str">
-        <f t="shared" si="27"/>
-        <v>22M 7W</v>
+        <f t="shared" si="28"/>
+        <v>22uF 400V</v>
       </c>
       <c r="CL6" t="str">
-        <f t="shared" si="27"/>
-        <v>27M 7W</v>
+        <f t="shared" si="28"/>
+        <v>27uF 400V</v>
       </c>
       <c r="CM6" t="str">
-        <f t="shared" si="27"/>
-        <v>33M 7W</v>
+        <f t="shared" si="28"/>
+        <v>33uF 400V</v>
       </c>
       <c r="CN6" t="str">
-        <f t="shared" si="27"/>
-        <v>39M 7W</v>
+        <f t="shared" si="28"/>
+        <v>39uF 400V</v>
       </c>
       <c r="CO6" t="str">
-        <f t="shared" si="27"/>
-        <v>47M 7W</v>
+        <f t="shared" si="28"/>
+        <v>47uF 400V</v>
       </c>
       <c r="CP6" t="str">
-        <f t="shared" si="27"/>
-        <v>56M 7W</v>
+        <f t="shared" si="28"/>
+        <v>56uF 400V</v>
       </c>
       <c r="CQ6" t="str">
-        <f t="shared" si="27"/>
-        <v>68M 7W</v>
+        <f t="shared" si="28"/>
+        <v>68uF 400V</v>
       </c>
       <c r="CR6" t="str">
-        <f t="shared" si="27"/>
-        <v>82M 7W</v>
+        <f t="shared" si="28"/>
+        <v>82uF 400V</v>
+      </c>
+      <c r="CS6" t="str">
+        <f t="shared" ref="CS6:DD6" si="29">CONCATENATE(CS4,CS5)</f>
+        <v>100uF 400V</v>
+      </c>
+      <c r="CT6" t="str">
+        <f t="shared" si="29"/>
+        <v>120uF 400V</v>
+      </c>
+      <c r="CU6" t="str">
+        <f t="shared" si="29"/>
+        <v>150uF 400V</v>
+      </c>
+      <c r="CV6" t="str">
+        <f t="shared" si="29"/>
+        <v>180uF 400V</v>
+      </c>
+      <c r="CW6" t="str">
+        <f t="shared" si="29"/>
+        <v>220uF 400V</v>
+      </c>
+      <c r="CX6" t="str">
+        <f t="shared" si="29"/>
+        <v>270uF 400V</v>
+      </c>
+      <c r="CY6" t="str">
+        <f t="shared" si="29"/>
+        <v>330uF 400V</v>
+      </c>
+      <c r="CZ6" t="str">
+        <f t="shared" si="29"/>
+        <v>390uF 400V</v>
+      </c>
+      <c r="DA6" t="str">
+        <f t="shared" si="29"/>
+        <v>470uF 400V</v>
+      </c>
+      <c r="DB6" t="str">
+        <f t="shared" si="29"/>
+        <v>560uF 400V</v>
+      </c>
+      <c r="DC6" t="str">
+        <f t="shared" si="29"/>
+        <v>680uF 400V</v>
+      </c>
+      <c r="DD6" t="str">
+        <f t="shared" si="29"/>
+        <v>820uF 400V</v>
       </c>
     </row>
   </sheetData>
